--- a/data/long_razon/P27_N-Edad-long_razon.xlsx
+++ b/data/long_razon/P27_N-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.4197967583173804</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.06958379113215858</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2955379285812681</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.531583800231778</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7201488771524491</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.02003301438975143</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.5039515910639637</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.6111274317004542</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.5793853206884453</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.04220893178917226</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.4093735792380691</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.5698689442470819</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.2936799916428094</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.389818404226892</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4846193858702553</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7874671929207839</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.1270385237701446</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3054782029320249</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.1492653981936329</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.81669813374752</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.0189198194721429</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2773259541255563</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1408288307267169</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.7614744045117475</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.86606213860967</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.8175669393640402</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.540491103916394</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.02380912249259139</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.804004402088642</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5166168933515642</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.691220237459864</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.2332115629986856</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.363472212358097</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.4024000100098443</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.283413473925418</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>-0.3164476753110343</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.116325799209757</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.5128114650714745</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5590952454130329</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.226955584502438</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.6765046288956869</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2667282781090761</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.4751001982388909</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.01884263814530532</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.233890401459011</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3808682124179668</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.06426018631388614</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.09033275028032502</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.4649888541437919</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.04942789757613128</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2516586869589949</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7440894637889985</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.07085202461839039</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1396301538800235</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.6501756023842877</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3453517402836549</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.1379391705502407</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.02054880972128177</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.388251773935954</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.451582810550452</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.5523824692209782</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.609089679476681</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.814121935615435</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.21747636710197</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.643956053324524</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.7940522402103105</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>-0.1423274672729067</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.7728704650725838</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.7886903253853825</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.8781702018266606</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.8879251712419863</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.5523762827995735</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.09274840398697227</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8202805749174292</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1664573608349121</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.31361229288596</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.4565120833474905</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.2569081149276182</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.3511113375243077</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.06715224095354459</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.2766178228826072</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4654263864787799</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.2706533387375485</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.147133683100291</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.3561714563643421</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.168100446326184</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4498706577459608</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.6050646545294744</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.03180904041827144</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.04829726162057194</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5381039480197833</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3063675477533331</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.03992377423591202</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.1760304048934363</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.4471672498799702</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.3828372256900977</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.6410351687720292</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.818210399775489</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.2384248736913457</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.1465738800823367</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.054735962685082</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.6161622781506927</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.1014429029720171</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.6112620740566083</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.6950246716187698</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.8903705827010273</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.07087019217001432</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.2031310133841833</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.2556653970764554</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5415712805511276</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1534676492937096</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.4447161970531313</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2211929094624407</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.427943473360321</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.2672401354315617</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1956022410719077</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2356688270948493</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.4767977084647264</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.09907021021606803</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.3281907986127307</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1588788372958054</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1041349722759841</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.224652651936187</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.6702090031248176</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.08682257656206568</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.1119026512031448</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.441722997301045</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4522405510069499</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.01919633304204859</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.1767052118857114</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.3005047232195217</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.5058459804939912</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.8687642949891033</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.172408232237902</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.8467394275048497</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.1025641270710882</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.6512046489796427</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.8675353227146148</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.02602942601772327</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1770690502852077</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.5683976047901058</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.8155608969685761</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.1653738274854812</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-0.08083705367260895</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.06026112722286953</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.490888833004245</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.4853352686757478</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.3135479193446614</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.4223236559192877</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.01712861482973767</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.5166637742257877</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>-0.4976017529498906</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.161126235251938</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.2195745735048182</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.5022690704135282</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-0.4216070202089541</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.3521243396905645</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.1087644299012465</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.6556628527125037</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.5868305827848188</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.02449437700803246</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.2315394345926944</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.6827086676578346</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.6694064359991622</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.100988998848414</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>0.006787253300035405</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.6163320472631182</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.5760793250716666</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.3696304312968285</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.038674565281976</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-0.221448374746645</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.06816542529765167</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.9657418413919829</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.334313550265885</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>-0.306310084460586</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>-0.2729280242447163</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.4960136320069679</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.4730210598431054</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>-0.3501980516155582</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>-0.2311753657086263</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.7840969954885919</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.6654321624451938</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.3212073557905061</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.4198879520183822</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.126078971545959</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1.019026371614172</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>-0.6154461376745398</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.2396384628634455</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.1381770111445516</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.8622365477012121</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.5158888628187828</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.08938365967531761</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>0.09969159635002553</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.1736289943671176</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.6155402600833113</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.6769771731421901</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.376365576147827</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>0.5006282596097092</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.7566905394840684</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.267500880527299</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.1502084220334519</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>0.4892173118012724</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.6613129823171584</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.4001580554189117</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>2.441264148562071</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.496049791277776</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.2037839552477412</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>-0.04805556164940974</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.2490550394668188</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.755434119079411</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>-0.4223885282991685</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.071805667985143</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.5725921673834706</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>1.386749745898852</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>-0.3406369240457956</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.3384695248182664</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.1960223324765158</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5129229437101989</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.08286791035453801</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.3884192425228498</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2823108128861879</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.3425093525211598</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-0.398356429301586</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.1799522218790545</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.2437418607244087</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.4156920908383865</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.2701714812058492</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>-0.2836326583708929</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.03685088509835216</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2794297932644524</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.2734428140801143</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.5198321747236017</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1049523863248541</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0.1855216194220429</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.4969498513527924</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.3247569916066185</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.1049114433037549</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.2718669450023458</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.3662691448542015</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.3855245609996514</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.4747931821862947</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.7759420491158204</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1966803535844043</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-0.1922585058019694</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4915309518724162</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.5287115178664983</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>-0.2997101844129069</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>-0.01177248438867269</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.4069890594937428</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.5743414630484747</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.1334945934605701</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>-0.1523417195608381</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
